--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/3 Cuestionario con Gerencia.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/3 Cuestionario con Gerencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2878B9-0A1E-496E-BE8C-EC18B13F3985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98194F14-D6EA-4174-8959-307FEFDE7F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,21 +124,6 @@
   </si>
   <si>
     <r>
-      <t>ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Auditoria de Estados Financieros           </t>
     </r>
     <r>
@@ -177,6 +162,9 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -389,11 +377,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +666,7 @@
   <dimension ref="A3:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,37 +682,37 @@
     <row r="3" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>37</v>
+      <c r="A4" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="C8" s="25" t="s">
-        <v>32</v>
+      <c r="A8" s="29"/>
+      <c r="C8" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="3"/>
@@ -732,10 +720,10 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="12"/>
       <c r="C9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="4"/>
@@ -744,7 +732,7 @@
     </row>
     <row r="10" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="4"/>
@@ -752,7 +740,7 @@
     <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="3"/>
